--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/73.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/73.xlsx
@@ -479,13 +479,13 @@
         <v>-4.924690674654635</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.690339672140579</v>
+        <v>-5.591889740861512</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.737672501184832</v>
+        <v>-6.935931507651967</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.93013259988111</v>
+        <v>-13.32890933398789</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.927273120279068</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.540127289720266</v>
+        <v>-6.434788747765717</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.456662164488295</v>
+        <v>-6.665486314794833</v>
       </c>
       <c r="G3" t="n">
-        <v>-13.68527393352419</v>
+        <v>-14.04639064773513</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.063629954774582</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.655451537262707</v>
+        <v>-7.536599780328005</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.542557126133124</v>
+        <v>-6.785164313890044</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.14935802135922</v>
+        <v>-14.42799230071844</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.303019671552528</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.349514508117421</v>
+        <v>-8.239927419195523</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.030575438022924</v>
+        <v>-6.290543489164259</v>
       </c>
       <c r="G5" t="n">
-        <v>-15.04373338156518</v>
+        <v>-15.30421477842754</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.601396853302941</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.36710750839023</v>
+        <v>-9.307432290572667</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.711220620469172</v>
+        <v>-5.979602652428468</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.66689597483589</v>
+        <v>-15.87145691115448</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.911291064676341</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.2434668782916</v>
+        <v>-10.21599554870641</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.756326597823329</v>
+        <v>-6.074214713317006</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.07377379332115</v>
+        <v>-16.23386921218515</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.188327014829705</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.24680842354736</v>
+        <v>-11.26129455089402</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.3166239872336</v>
+        <v>-5.624274522347957</v>
       </c>
       <c r="G8" t="n">
-        <v>-17.15687459660376</v>
+        <v>-17.27956422392899</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.3862649213638</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.7260826557179</v>
+        <v>-11.75016101453745</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.910024842139751</v>
+        <v>-5.191260073152167</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.5456386446471</v>
+        <v>-17.64743754563</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.467218520143152</v>
       </c>
       <c r="E10" t="n">
-        <v>-12.48190845032235</v>
+        <v>-12.6148649920681</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.757419381795867</v>
+        <v>-5.037319913933615</v>
       </c>
       <c r="G10" t="n">
-        <v>-18.21926067779124</v>
+        <v>-18.35065273733958</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.409085451937058</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.92880279001331</v>
+        <v>-13.08875642767816</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.883110859337384</v>
+        <v>-5.144482055449524</v>
       </c>
       <c r="G11" t="n">
-        <v>-18.62159171989027</v>
+        <v>-18.76719612240073</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.206966758771308</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.85969414250825</v>
+        <v>-14.06966232042164</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.38016894492411</v>
+        <v>-4.62068363774199</v>
       </c>
       <c r="G12" t="n">
-        <v>-18.68948046924426</v>
+        <v>-18.86237041907897</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.872948170811919</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.54570491905315</v>
+        <v>-14.78334487583329</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.51224057642695</v>
+        <v>-4.732270330472457</v>
       </c>
       <c r="G13" t="n">
-        <v>-18.44459989329422</v>
+        <v>-18.62314153506708</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.443006601244393</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.20403413871759</v>
+        <v>-15.42492435797167</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.351534031704589</v>
+        <v>-4.52209681427065</v>
       </c>
       <c r="G14" t="n">
-        <v>-18.05596295942942</v>
+        <v>-18.27062947294192</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.970582577729736</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.57234258202975</v>
+        <v>-15.79590708804004</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.215600084776885</v>
+        <v>-4.407918947900719</v>
       </c>
       <c r="G15" t="n">
-        <v>-17.03902997508364</v>
+        <v>-17.32011853589005</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.512847726201248</v>
       </c>
       <c r="E16" t="n">
-        <v>-16.58306652765455</v>
+        <v>-16.87166460300854</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.130521587278832</v>
+        <v>-4.334143834278972</v>
       </c>
       <c r="G16" t="n">
-        <v>-16.3017041824636</v>
+        <v>-16.61068941645262</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.12132288033674</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.28754797214266</v>
+        <v>-17.58891613343303</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.832869071207316</v>
+        <v>-4.01943357324879</v>
       </c>
       <c r="G17" t="n">
-        <v>-15.30719707261636</v>
+        <v>-15.6899769762546</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.839292537800744</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.07422340007734</v>
+        <v>-18.39029280501653</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.279839281442498</v>
+        <v>-3.438585334411226</v>
       </c>
       <c r="G18" t="n">
-        <v>-14.03957048315578</v>
+        <v>-14.41476753714344</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.693766703572521</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.48342585039004</v>
+        <v>-19.80869147724589</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.310552022580457</v>
+        <v>-3.502582434299143</v>
       </c>
       <c r="G19" t="n">
-        <v>-13.08970489501034</v>
+        <v>-13.47784803918159</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.690817694497345</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.61747499423277</v>
+        <v>-20.95027458067053</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.083648324880067</v>
+        <v>-3.317020178665386</v>
       </c>
       <c r="G20" t="n">
-        <v>-11.58540637212928</v>
+        <v>-11.95636465716332</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.823366883606198</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.43734188978694</v>
+        <v>-21.8101579974304</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.70810904041173</v>
+        <v>-2.958856424602064</v>
       </c>
       <c r="G21" t="n">
-        <v>-10.78856669891828</v>
+        <v>-11.14030629795848</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.070549713701772</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.1435735987334</v>
+        <v>-22.46599382359271</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.041495307673527</v>
+        <v>-3.303252735328153</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.980335639707373</v>
+        <v>-10.32880938216047</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.39748091328947</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.48915304912128</v>
+        <v>-22.8156213716664</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.836743700087129</v>
+        <v>-3.121992805737281</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.92178253990355</v>
+        <v>-9.211148189335644</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.764226482567057</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.19217268055618</v>
+        <v>-23.53875926635865</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.602687385340443</v>
+        <v>-2.880382975381212</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.41289070413324</v>
+        <v>-8.685511505046151</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.133166774481779</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.53133775393468</v>
+        <v>-23.86378533187802</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.900295900350156</v>
+        <v>-3.201776508798467</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.052717568247616</v>
+        <v>-8.318215086155432</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.466258963298959</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.17219855206362</v>
+        <v>-24.54574312173026</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.878080253146895</v>
+        <v>-3.22696956118368</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.004839523999918</v>
+        <v>-8.260950148723257</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.727076094827818</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.77614010577484</v>
+        <v>-24.11183398427782</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.820668645508713</v>
+        <v>-3.121875469572476</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.045623619283722</v>
+        <v>-8.240998111699376</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.889896895192297</v>
       </c>
       <c r="E28" t="n">
-        <v>-23.87431136366249</v>
+        <v>-24.17575774906274</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.746160180856929</v>
+        <v>-3.054324061692312</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.421123791697124</v>
+        <v>-8.620150372242364</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.937839270041071</v>
       </c>
       <c r="E29" t="n">
-        <v>-23.81466547988613</v>
+        <v>-24.12916551362104</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.113911277386271</v>
+        <v>-3.387979224331789</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.841827721602023</v>
+        <v>-9.006235244522639</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.862256068019375</v>
       </c>
       <c r="E30" t="n">
-        <v>-23.85688205418194</v>
+        <v>-24.17719511708161</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.105321292321102</v>
+        <v>-3.380401263688071</v>
       </c>
       <c r="G30" t="n">
-        <v>-9.502850784050125</v>
+        <v>-9.659621678244619</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.663895460512214</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.6808484729318</v>
+        <v>-23.96867408520082</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.068487514585764</v>
+        <v>-3.35195702173636</v>
       </c>
       <c r="G31" t="n">
-        <v>-10.20237966458205</v>
+        <v>-10.30058514551777</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.352288407210684</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.44444054588213</v>
+        <v>-23.70517617110157</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.079169994589974</v>
+        <v>-3.306763042258598</v>
       </c>
       <c r="G32" t="n">
-        <v>-10.28932576270326</v>
+        <v>-10.34988100175687</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.94163510505272</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.43360161765818</v>
+        <v>-23.70434503993419</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.938449709939561</v>
+        <v>-3.176084777712829</v>
       </c>
       <c r="G33" t="n">
-        <v>-11.1223929767981</v>
+        <v>-11.20159977704899</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.449216950572941</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.61774370773488</v>
+        <v>-22.87499836006508</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.32897868946186</v>
+        <v>-3.585059980143998</v>
       </c>
       <c r="G34" t="n">
-        <v>-11.20445495705927</v>
+        <v>-11.24225186914739</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.899434626711353</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.28739840274431</v>
+        <v>-22.57903255136265</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.036068510051251</v>
+        <v>-3.267064306499249</v>
       </c>
       <c r="G35" t="n">
-        <v>-11.48876537339098</v>
+        <v>-11.50082655333166</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.318852620508492</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.01876214242793</v>
+        <v>-22.2911678270387</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.192585175888667</v>
+        <v>-3.41287404729812</v>
       </c>
       <c r="G36" t="n">
-        <v>-11.26068342503566</v>
+        <v>-11.26201812391033</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.734336801434186</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.54845434885131</v>
+        <v>-21.84079251445849</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.219699607972577</v>
+        <v>-3.482170830629773</v>
       </c>
       <c r="G37" t="n">
-        <v>-11.42183486938291</v>
+        <v>-11.39793251481056</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.173702680665735</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.17950055663271</v>
+        <v>-21.46825019119957</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.312590738443961</v>
+        <v>-3.554924141816334</v>
       </c>
       <c r="G38" t="n">
-        <v>-11.29783987722421</v>
+        <v>-11.28754362876249</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.664705123823368</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.75006974947037</v>
+        <v>-21.01134316544517</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.223967710967393</v>
+        <v>-3.489944351548167</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.33132468525571</v>
+        <v>-11.3573048677465</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.228210444548946</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.14841389740721</v>
+        <v>-20.37246730410419</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.345029299005942</v>
+        <v>-3.601374596058893</v>
       </c>
       <c r="G40" t="n">
-        <v>-11.28482045193762</v>
+        <v>-11.30714365729195</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.8750539527404764</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.56112194751905</v>
+        <v>-19.79876190429919</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.142448410468454</v>
+        <v>-3.403340483907636</v>
       </c>
       <c r="G41" t="n">
-        <v>-11.46055091476201</v>
+        <v>-11.47059293486665</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.610602667562041</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.50726953687998</v>
+        <v>-19.73651995787649</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.863398565525549</v>
+        <v>-3.100202502131442</v>
       </c>
       <c r="G42" t="n">
-        <v>-11.37487106941933</v>
+        <v>-11.39100479208015</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.431848341102392</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.04849979950929</v>
+        <v>-19.29940852092623</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.100349172337449</v>
+        <v>-3.349703189570712</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.56810906583414</v>
+        <v>-11.63252173130574</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.3278835246597918</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.84265794339157</v>
+        <v>-19.06706824758983</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.819426837764516</v>
+        <v>-3.008362508136444</v>
       </c>
       <c r="G44" t="n">
-        <v>-11.5744989978092</v>
+        <v>-11.66418293977588</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2857347150687039</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.45631884275421</v>
+        <v>-18.72931120818901</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.893509958818878</v>
+        <v>-3.087676866538406</v>
       </c>
       <c r="G45" t="n">
-        <v>-11.2707254451403</v>
+        <v>-11.4269487705657</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2899543726248152</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.25543443959955</v>
+        <v>-18.50707162303966</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.910406366550936</v>
+        <v>-3.096428188830183</v>
       </c>
       <c r="G46" t="n">
-        <v>-11.05158060133771</v>
+        <v>-11.23614061056375</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.3215463819488217</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.7071518755025</v>
+        <v>-17.99186319039729</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.01767117721105</v>
+        <v>-3.188717971456937</v>
       </c>
       <c r="G47" t="n">
-        <v>-11.13865381363746</v>
+        <v>-11.3507144864899</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.3591201641911599</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.97190879980776</v>
+        <v>-17.23236575163579</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.013618190518378</v>
+        <v>-3.184171195070706</v>
       </c>
       <c r="G48" t="n">
-        <v>-10.73713923568521</v>
+        <v>-10.98522211113307</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.3834226766185423</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.93579370608186</v>
+        <v>-17.24708166230521</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.940385756658859</v>
+        <v>-3.098408236611284</v>
       </c>
       <c r="G49" t="n">
-        <v>-10.33400150745313</v>
+        <v>-10.57721004305468</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.378653018978124</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.25194387057213</v>
+        <v>-16.56252292079977</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.156122962675215</v>
+        <v>-3.322153635875646</v>
       </c>
       <c r="G50" t="n">
-        <v>-10.4849104824142</v>
+        <v>-10.76010778994597</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.334881014803042</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.7203132638638</v>
+        <v>-16.02549485051037</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.087857759792481</v>
+        <v>-3.245068664604998</v>
       </c>
       <c r="G51" t="n">
-        <v>-10.16675347154284</v>
+        <v>-10.41568703418555</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.250281708131061</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.15931439290591</v>
+        <v>-15.45155477837575</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.149376133198872</v>
+        <v>-3.289304398736845</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.61531260900977</v>
+        <v>-9.880844349965654</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1310980974146792</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.90372200291047</v>
+        <v>-15.1879835291735</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.073909423201173</v>
+        <v>-3.241460577537215</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.577100131337962</v>
+        <v>-9.868504496633561</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.009008360510576442</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.35574255723917</v>
+        <v>-14.62319078888689</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.076006807147079</v>
+        <v>-3.182631157907628</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.447204107890899</v>
+        <v>-9.708668195133511</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1514572850244308</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.91816177562968</v>
+        <v>-14.16008450242524</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.109863179700465</v>
+        <v>-3.225356188917597</v>
       </c>
       <c r="G55" t="n">
-        <v>-9.647927173818958</v>
+        <v>-9.9152238462538</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2744939558700227</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.72347663318226</v>
+        <v>-13.95898009396156</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.302152708783098</v>
+        <v>-3.469342076610988</v>
       </c>
       <c r="G56" t="n">
-        <v>-9.425003127708237</v>
+        <v>-9.640916337971802</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3569720540297999</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.37908032245617</v>
+        <v>-13.65521143029953</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.372520184618604</v>
+        <v>-3.513944486257853</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.588369292166201</v>
+        <v>-9.77419555417077</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3810745227374163</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.21550393070293</v>
+        <v>-13.49451955259777</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.301761588233744</v>
+        <v>-3.453276800046305</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.78164640063595</v>
+        <v>-9.947305509314496</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3349839735842547</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.04660829947849</v>
+        <v>-13.31958110888582</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.487001169414285</v>
+        <v>-3.639948860238852</v>
       </c>
       <c r="G59" t="n">
-        <v>-10.03657877470436</v>
+        <v>-10.12579826101869</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2136279367552999</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.79175903852681</v>
+        <v>-13.0429268773077</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.542608733518575</v>
+        <v>-3.75359382486029</v>
       </c>
       <c r="G60" t="n">
-        <v>-10.44807670467886</v>
+        <v>-10.52248250018644</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02082940284526438</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.33713028997239</v>
+        <v>-12.55758538761532</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.684365487624774</v>
+        <v>-3.870577981171831</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.74251225423195</v>
+        <v>-10.7974158013474</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2315451923886613</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.09651292801031</v>
+        <v>-12.28420190163117</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.626812098787451</v>
+        <v>-3.82284660713014</v>
       </c>
       <c r="G62" t="n">
-        <v>-11.28658538341658</v>
+        <v>-11.40631716158732</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5261114904823772</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.89537918550543</v>
+        <v>-12.0702100710663</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.709675876174793</v>
+        <v>-3.90705975041275</v>
       </c>
       <c r="G63" t="n">
-        <v>-11.63828098139497</v>
+        <v>-11.75156415950826</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8417053519323437</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.03614347121764</v>
+        <v>-12.22226796264109</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.866896559001044</v>
+        <v>-4.064021315875054</v>
       </c>
       <c r="G64" t="n">
-        <v>-12.00554806624449</v>
+        <v>-12.09097368323009</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.155263505367265</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.11761388164791</v>
+        <v>-12.27943023092906</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.868275258937514</v>
+        <v>-4.09340913615208</v>
       </c>
       <c r="G65" t="n">
-        <v>-12.3851403374055</v>
+        <v>-12.48568765263047</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.444299347881113</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.19010807547053</v>
+        <v>-12.36306158239451</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.997349929230936</v>
+        <v>-4.23288272405143</v>
       </c>
       <c r="G66" t="n">
-        <v>-12.6339858979246</v>
+        <v>-12.74202317166969</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.691979141504926</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.13109287358</v>
+        <v>-12.29785689781047</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.113674069615443</v>
+        <v>-4.347622826211057</v>
       </c>
       <c r="G67" t="n">
-        <v>-12.78374595627194</v>
+        <v>-12.88887915993808</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.886998435181469</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.15657926637722</v>
+        <v>-12.33207016786514</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.912403434918288</v>
+        <v>-4.132555414135468</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.14617292432321</v>
+        <v>-13.28411136406635</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.024890650911881</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.48684145825106</v>
+        <v>-12.6476262270833</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.723751326944641</v>
+        <v>-3.942314378930074</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.44746775051058</v>
+        <v>-13.56850978252166</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.108162897639006</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.44411642724109</v>
+        <v>-12.56001522402818</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.654713660976935</v>
+        <v>-3.900332476963875</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.84391731734871</v>
+        <v>-13.96500823942846</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.145092171640577</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.77343504078962</v>
+        <v>-12.88774002133809</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.636678114644886</v>
+        <v>-3.871448224394141</v>
       </c>
       <c r="G71" t="n">
-        <v>-14.60305296960206</v>
+        <v>-14.75519886330046</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.145997007741237</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.10772577432179</v>
+        <v>-13.19807462122238</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.639068839002807</v>
+        <v>-3.870514424082561</v>
       </c>
       <c r="G72" t="n">
-        <v>-14.79079572229847</v>
+        <v>-14.92327314137126</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.121123321195241</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.59723758687165</v>
+        <v>-13.70991452813344</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.771873821535685</v>
+        <v>-4.009865786810238</v>
       </c>
       <c r="G73" t="n">
-        <v>-14.85709065541383</v>
+        <v>-15.03004905134468</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.083025050926862</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.11716880014746</v>
+        <v>-14.24596479704946</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.770940021224104</v>
+        <v>-3.993678285073882</v>
       </c>
       <c r="G74" t="n">
-        <v>-15.12341441548216</v>
+        <v>-15.30372587774085</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.044200220539715</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.70849906970769</v>
+        <v>-14.86066940844041</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.680464060144976</v>
+        <v>-3.920929862894188</v>
       </c>
       <c r="G75" t="n">
-        <v>-15.45994431415938</v>
+        <v>-15.69898741591032</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.014565953171957</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.94250160537884</v>
+        <v>-15.10738336196554</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.685558405300302</v>
+        <v>-3.901412947481463</v>
       </c>
       <c r="G76" t="n">
-        <v>-15.44641643215863</v>
+        <v>-15.68132343410016</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.001732487444521</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.74508097265159</v>
+        <v>-15.91241212167863</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.832800625111179</v>
+        <v>-4.048943618697489</v>
       </c>
       <c r="G77" t="n">
-        <v>-15.50010261656422</v>
+        <v>-15.72933837054013</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.009823356101032</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.23901244740915</v>
+        <v>-16.4060600340379</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.799980722013579</v>
+        <v>-4.038251360679546</v>
       </c>
       <c r="G78" t="n">
-        <v>-15.53354342353392</v>
+        <v>-15.77853155763503</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.037895872003507</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.23436046643749</v>
+        <v>-17.45623826507869</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.669351347536479</v>
+        <v>-3.818011379338761</v>
       </c>
       <c r="G79" t="n">
-        <v>-15.54763354132437</v>
+        <v>-15.81735027215833</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.08367528924591</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.95120132028516</v>
+        <v>-18.16340866334361</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.018445993861674</v>
+        <v>-4.186344267685267</v>
       </c>
       <c r="G80" t="n">
-        <v>-15.41248183549537</v>
+        <v>-15.66958492861269</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.1462998382434</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.44645282689678</v>
+        <v>-18.65201112061622</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.781094488486687</v>
+        <v>-3.929050503300134</v>
       </c>
       <c r="G81" t="n">
-        <v>-15.16631545073934</v>
+        <v>-15.44670488356378</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.222422188875109</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.22503694846672</v>
+        <v>-19.46888594396784</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.951642604032148</v>
+        <v>-4.111821136012882</v>
       </c>
       <c r="G82" t="n">
-        <v>-15.34237347702381</v>
+        <v>-15.6185436969221</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.307096249705234</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.09991983829428</v>
+        <v>-20.37467224620117</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.100297746827564</v>
+        <v>-4.237488168520064</v>
       </c>
       <c r="G83" t="n">
-        <v>-15.19754642660519</v>
+        <v>-15.47630293113608</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.396687671288772</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.89897423161599</v>
+        <v>-21.17225504845594</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.230614224865182</v>
+        <v>-4.384373490829656</v>
       </c>
       <c r="G84" t="n">
-        <v>-14.94172914229386</v>
+        <v>-15.19643173303953</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.488248855053432</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.17266318959154</v>
+        <v>-22.43041652062217</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.956751616208074</v>
+        <v>-4.0701619084999</v>
       </c>
       <c r="G85" t="n">
-        <v>-14.98040607561803</v>
+        <v>-15.28821794795899</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.578339540231932</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.45851110764511</v>
+        <v>-23.76829324975344</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.273006803408201</v>
+        <v>-4.404907319670699</v>
       </c>
       <c r="G86" t="n">
-        <v>-14.5557909402196</v>
+        <v>-14.85645508452113</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.664523914643068</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.43821430469933</v>
+        <v>-24.76864761181351</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.105211198728813</v>
+        <v>-4.194636023331554</v>
       </c>
       <c r="G87" t="n">
-        <v>-14.83516834862259</v>
+        <v>-15.14017882002881</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.747009813032327</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.50792411817345</v>
+        <v>-25.84203884745842</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.852087757201158</v>
+        <v>-3.906218841231641</v>
       </c>
       <c r="G88" t="n">
-        <v>-14.56539294970622</v>
+        <v>-14.87526798294502</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.824997286461334</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.96725355589263</v>
+        <v>-27.3480778567841</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.113336728141626</v>
+        <v>-4.120665349435131</v>
       </c>
       <c r="G89" t="n">
-        <v>-14.28209944680283</v>
+        <v>-14.60202138915315</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.898540713914122</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.58131028293593</v>
+        <v>-28.94324590579708</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.033518802032372</v>
+        <v>-4.032164547130237</v>
       </c>
       <c r="G90" t="n">
-        <v>-14.35782527416448</v>
+        <v>-14.70448519506995</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.971642441150926</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.88704179191724</v>
+        <v>-30.23919695654113</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.852278428468968</v>
+        <v>-3.837200731291402</v>
       </c>
       <c r="G91" t="n">
-        <v>-14.04020116504161</v>
+        <v>-14.40908162215721</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.050422876969965</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.71335475208765</v>
+        <v>-32.11252749575066</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.890838025628326</v>
+        <v>-3.863141801727253</v>
       </c>
       <c r="G92" t="n">
-        <v>-13.94693847004834</v>
+        <v>-14.31002545402665</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.14088449872997</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.56571634084499</v>
+        <v>-33.95680755615699</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.765224772196681</v>
+        <v>-3.712658170363611</v>
       </c>
       <c r="G93" t="n">
-        <v>-14.0911690616292</v>
+        <v>-14.40202189624139</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.249073600283266</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.07692791943587</v>
+        <v>-35.46179298450285</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.721795724197875</v>
+        <v>-3.615078482306856</v>
       </c>
       <c r="G94" t="n">
-        <v>-14.15640796926132</v>
+        <v>-14.4810771372794</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.382492975420751</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.32858447702788</v>
+        <v>-37.72075616285746</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.48868787678337</v>
+        <v>-3.327399540243846</v>
       </c>
       <c r="G95" t="n">
-        <v>-13.94155567348787</v>
+        <v>-14.29397973348943</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.543306212839993</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.17211651938357</v>
+        <v>-39.57273152007232</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.51505917982351</v>
+        <v>-3.302186931831166</v>
       </c>
       <c r="G96" t="n">
-        <v>-13.8561105004748</v>
+        <v>-14.15729287950423</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.727938659349013</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.21465803076047</v>
+        <v>-41.63328413274692</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.59377219038084</v>
+        <v>-3.377673197856333</v>
       </c>
       <c r="G97" t="n">
-        <v>-14.05719046390414</v>
+        <v>-14.38517926758487</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.932357709910733</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.45225380460323</v>
+        <v>-43.87022966867639</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.379413684300954</v>
+        <v>-3.130079223095159</v>
       </c>
       <c r="G98" t="n">
-        <v>-13.92984650204161</v>
+        <v>-14.20490691738111</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.144324166486443</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.58611218624036</v>
+        <v>-46.0444468019999</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.270794618738705</v>
+        <v>-2.975097705413955</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.31772563984204</v>
+        <v>-14.61358877940027</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.347236528584649</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.02104294425241</v>
+        <v>-48.43544249980243</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.885824440024088</v>
+        <v>-2.553293748964001</v>
       </c>
       <c r="G100" t="n">
-        <v>-14.78751519869077</v>
+        <v>-15.11190569331744</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.515385903257196</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.09095189381858</v>
+        <v>-50.48346092112199</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.403875921097346</v>
+        <v>-2.032101171916533</v>
       </c>
       <c r="G101" t="n">
-        <v>-14.84550370913924</v>
+        <v>-15.14398246737127</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.632747145447214</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.31356897287284</v>
+        <v>-52.60869631689759</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.430379227322892</v>
+        <v>-1.993600242839578</v>
       </c>
       <c r="G102" t="n">
-        <v>-15.73360647353494</v>
+        <v>-16.05787963199681</v>
       </c>
     </row>
   </sheetData>
